--- a/CheckinManagementSystem/Word/formBaoCao_DiemDanh.xlsx
+++ b/CheckinManagementSystem/Word/formBaoCao_DiemDanh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\C#\check-in-out-software\CheckinManagementSystem\Word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F9394B-B801-4F7C-980E-09913B61E695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C855CE5D-EDC6-4075-B021-9A5D872D17C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -173,6 +173,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,7 +455,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -531,18 +534,18 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2"/>
